--- a/excel/ai_config.xlsx
+++ b/excel/ai_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -365,12 +365,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -826,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1373,12 +1370,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,10 +1384,11 @@
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8916666666667" style="1"/>
+    <col min="8" max="8" width="14.3833333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="12.8916666666667" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:10">
@@ -1557,13 +1555,13 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1589,14 +1587,14 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
         <v>100</v>
       </c>
-      <c r="D7" s="6">
-        <v>50</v>
+      <c r="D7" s="5">
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -1605,107 +1603,433 @@
         <v>26</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C16" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D16" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1">
         <v>90</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H16" s="1">
         <v>50</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1">
+        <v>85</v>
+      </c>
+      <c r="H17" s="1">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>80</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4"/>
@@ -1750,22 +2074,6 @@
     <row r="31" spans="1:2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
